--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\Projet Final\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB833D24-0C1E-4BFC-865F-D2215F20D46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48C304-C7F0-4CD8-8FC4-961AFC083B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,122 +473,122 @@
     <col min="3" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="E4">
         <v>200</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>260</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>200</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>135</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>260</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
         <v>200</v>
       </c>
     </row>
@@ -601,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\Projet Final\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48C304-C7F0-4CD8-8FC4-961AFC083B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24239A-2225-4287-B460-373FBB415888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -599,30 +599,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>10</v>
       </c>
     </row>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\Projet Final\ProjetSIAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamof7\Downloads\git\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24239A-2225-4287-B460-373FBB415888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD7BFE-730C-4585-90AD-F67245F0237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t># de lot</t>
   </si>
@@ -45,9 +43,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Priorité</t>
-  </si>
-  <si>
     <t>Quantité</t>
   </si>
   <si>
@@ -72,9 +67,6 @@
     <t>001-203</t>
   </si>
   <si>
-    <t>Format</t>
-  </si>
-  <si>
     <t>Brie DC</t>
   </si>
   <si>
@@ -91,18 +83,43 @@
   </si>
   <si>
     <t>employés</t>
+  </si>
+  <si>
+    <t>Ligne</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Limite de séchage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,41 +482,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="4" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -507,15 +526,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>800</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -524,15 +543,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -541,15 +560,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>135</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -558,15 +577,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>260</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -575,15 +594,15 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -594,6 +613,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -601,25 +621,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>8</v>
       </c>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamof7\Downloads\git\ProjetSIAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD7BFE-730C-4585-90AD-F67245F0237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D02E9-0321-44E8-9921-E7F2EB7D09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t># de lot</t>
   </si>
@@ -101,13 +101,31 @@
   </si>
   <si>
     <t>Limite de séchage</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Brie</t>
+  </si>
+  <si>
+    <t>Dorémi</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>Sauv</t>
+  </si>
+  <si>
+    <t>Do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +138,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -480,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="4" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +527,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -525,8 +547,11 @@
       <c r="E2">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -542,8 +567,11 @@
       <c r="E3">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -559,8 +587,11 @@
       <c r="E4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -576,8 +607,11 @@
       <c r="E5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -593,8 +627,11 @@
       <c r="E6">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -609,6 +646,73 @@
       </c>
       <c r="E7">
         <v>200</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -625,13 +729,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -639,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D02E9-0321-44E8-9921-E7F2EB7D09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BE879-EC71-42F2-BEA2-1A691A9F3D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
-    <sheet name="infos" sheetId="2" r:id="rId2"/>
+    <sheet name="Lignes" sheetId="3" r:id="rId2"/>
+    <sheet name="infos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t># de lot</t>
   </si>
@@ -106,19 +107,22 @@
     <t>Gain</t>
   </si>
   <si>
-    <t>Brie</t>
-  </si>
-  <si>
-    <t>Dorémi</t>
-  </si>
-  <si>
-    <t>Bleu</t>
-  </si>
-  <si>
-    <t>Sauv</t>
-  </si>
-  <si>
-    <t>Do</t>
+    <t xml:space="preserve">GF </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>cadence</t>
+  </si>
+  <si>
+    <t>nombre d'opérateur</t>
+  </si>
+  <si>
+    <t>nombre d'employé</t>
+  </si>
+  <si>
+    <t>Temps journée</t>
   </si>
 </sst>
 </file>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,70 +655,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -722,33 +662,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3A5F9-8121-4742-8A37-B410E3A62A68}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2">
         <v>10</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BE879-EC71-42F2-BEA2-1A691A9F3D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D485A6D-D9C0-44F4-A527-47971EC29FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="4095" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
-    <sheet name="Lignes" sheetId="3" r:id="rId2"/>
-    <sheet name="infos" sheetId="2" r:id="rId3"/>
+    <sheet name="infos" sheetId="2" r:id="rId2"/>
+    <sheet name="lignes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t># de lot</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Gain</t>
   </si>
   <si>
-    <t xml:space="preserve">GF </t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>Temps journée</t>
+  </si>
+  <si>
+    <t>002-204</t>
+  </si>
+  <si>
+    <t>Chèvre DC</t>
+  </si>
+  <si>
+    <t>nom</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +661,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -662,66 +688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3A5F9-8121-4742-8A37-B410E3A62A68}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,5 +726,110 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3A5F9-8121-4742-8A37-B410E3A62A68}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D485A6D-D9C0-44F4-A527-47971EC29FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD411347-ECCA-4240-9288-D08CECA25B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="4095" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3A5F9-8121-4742-8A37-B410E3A62A68}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\SIAD\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD411347-ECCA-4240-9288-D08CECA25B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25440487-3068-4655-9955-7E01B80198D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
     <sheet name="infos" sheetId="2" r:id="rId2"/>
     <sheet name="lignes" sheetId="3" r:id="rId3"/>
+    <sheet name="Nettoyage" sheetId="4" r:id="rId4"/>
+    <sheet name="Format" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -512,16 +514,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -581,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -601,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -621,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -641,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -661,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -692,17 +694,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -721,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -735,16 +737,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -758,7 +760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -786,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -800,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -814,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -832,4 +834,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EB88CB-636E-4310-8BF6-657F7CE24305}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C19166-0FA5-4378-867C-E5DE98106C10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/etat.xlsx
+++ b/etat.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\SIAD\ProjetSIAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25440487-3068-4655-9955-7E01B80198D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F99A0-2583-4D75-B684-6B52E5EF5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
     <sheet name="infos" sheetId="2" r:id="rId2"/>
     <sheet name="lignes" sheetId="3" r:id="rId3"/>
     <sheet name="Nettoyage" sheetId="4" r:id="rId4"/>
-    <sheet name="Format" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t># de lot</t>
   </si>
@@ -154,12 +153,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,14 +185,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -513,17 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +567,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -563,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -583,8 +607,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -603,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -623,8 +647,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -643,8 +667,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -663,8 +687,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
@@ -693,18 +717,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -715,7 +739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -740,13 +764,13 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -760,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -774,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -788,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -802,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -816,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -838,28 +862,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EB88CB-636E-4310-8BF6-657F7CE24305}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C19166-0FA5-4378-867C-E5DE98106C10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F99A0-2583-4D75-B684-6B52E5EF5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D740AC-34BB-4E4F-8776-F29D457B59CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +615,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -668,7 +675,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -717,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D740AC-34BB-4E4F-8776-F29D457B59CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDDAE8-C92E-466D-8676-C7A2E47B0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="8580" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDDAE8-C92E-466D-8676-C7A2E47B0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543B2D5-23AC-4030-AF37-CCD1381957D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="1965" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t># de lot</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>nom</t>
+  </si>
+  <si>
+    <t>Poids</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
     <col min="3" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -593,8 +599,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -613,8 +622,11 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -633,8 +645,11 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -653,8 +668,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -673,8 +691,11 @@
       <c r="F6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -693,8 +714,11 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -712,6 +736,9 @@
       </c>
       <c r="F8">
         <v>4</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543B2D5-23AC-4030-AF37-CCD1381957D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6052BDF-780C-4C3B-9E57-E32C24E541C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="7470" yWindow="45" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
-    <sheet name="infos" sheetId="2" r:id="rId2"/>
-    <sheet name="lignes" sheetId="3" r:id="rId3"/>
+    <sheet name="lignes" sheetId="3" r:id="rId2"/>
+    <sheet name="infos" sheetId="2" r:id="rId3"/>
     <sheet name="Nettoyage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>800</v>
@@ -614,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -683,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>800</v>
@@ -748,49 +748,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3A5F9-8121-4742-8A37-B410E3A62A68}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -886,6 +843,49 @@
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6052BDF-780C-4C3B-9E57-E32C24E541C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF04ADD-8ECD-4283-AAD6-26CFB396A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="45" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
+    <workbookView xWindow="4830" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fromage" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,18 +166,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,12 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +584,14 @@
         <v>800</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -614,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -627,7 +614,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -650,7 +637,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -660,13 +647,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>235</v>
@@ -683,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -696,7 +683,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -855,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB943C98-06E6-4C3C-8347-5E1DD9399155}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +886,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etat.xlsx
+++ b/etat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darks\Desktop\ProjetSIAD\banque de tests excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF04ADD-8ECD-4283-AAD6-26CFB396A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C474D-493F-4E72-907E-A5713962FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{55FD4BA1-70F5-420B-9A68-5CC4DEB59ED8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t># de lot</t>
   </si>
@@ -133,6 +133,69 @@
   </si>
   <si>
     <t>Poids</t>
+  </si>
+  <si>
+    <t>001-104</t>
+  </si>
+  <si>
+    <t>002-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brie DC </t>
+  </si>
+  <si>
+    <t>002-102</t>
+  </si>
+  <si>
+    <t>002-103</t>
+  </si>
+  <si>
+    <t>002-104</t>
+  </si>
+  <si>
+    <t>002-105</t>
+  </si>
+  <si>
+    <t>002-201</t>
+  </si>
+  <si>
+    <t>002-202</t>
+  </si>
+  <si>
+    <t>002-203</t>
+  </si>
+  <si>
+    <t>003-101</t>
+  </si>
+  <si>
+    <t>003-102</t>
+  </si>
+  <si>
+    <t>003-103</t>
+  </si>
+  <si>
+    <t>003-104</t>
+  </si>
+  <si>
+    <t>003-105</t>
+  </si>
+  <si>
+    <t>003-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorémi Nature </t>
+  </si>
+  <si>
+    <t>003-202</t>
+  </si>
+  <si>
+    <t>003-203</t>
+  </si>
+  <si>
+    <t>003-204</t>
+  </si>
+  <si>
+    <t>003-205</t>
   </si>
 </sst>
 </file>
@@ -182,11 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F0777C-DE11-49FA-9068-4640E2A15889}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +630,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -584,14 +646,14 @@
         <v>800</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -607,14 +669,14 @@
         <v>500</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -637,7 +699,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -653,14 +715,14 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -683,7 +745,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -706,7 +768,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
@@ -725,6 +787,466 @@
         <v>4</v>
       </c>
       <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>900</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1100</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>850</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>850</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>850</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1100</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>750</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1300</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>700</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
         <v>200</v>
       </c>
     </row>
@@ -739,7 +1261,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +1365,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +1408,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
